--- a/biology/Zoologie/Ancylostoma_duodenale/Ancylostoma_duodenale.xlsx
+++ b/biology/Zoologie/Ancylostoma_duodenale/Ancylostoma_duodenale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ancylostoma duodenale est une espèce de nématodes (les nématodes sont un embranchement de vers non segmentés, recouverts d'une épaisse cuticule et menant une vie libre ou parasitaire).
 Deux petits vers ronds très voisins, Ancylostoma duodenale et Necator americanus, sont désignés couramment par le même nom d'ankylostome car ils entraînent, par leur présence dans le duodéno-jéjunum de l'homme, une seule et même maladie : l'ankylostomose.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce parasite, identifié depuis plus d'un siècle, fait partie de ceux qui étaient au début du XXe siècle considérés comme d'introduction interdite aux États-Unis (classé maladies contagieuses dangereuses). En vertu de la loi sur l'immigration (Immigration Act), l'admission des étrangers aux États-Unis nécessitait un examen médical conduit par des agents des services de santé publique (du service hospitalier de la marine), visant notamment à empêcher l'introduction d'ankylostomes par des étrangers immigrants arrivant au port de San Francisco. Un examen de routine des selles des étrangers passant par la station de l'immigration d'Angel Island a été tenté, bien qu'impossible à appliquer à tous les immigrants[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce parasite, identifié depuis plus d'un siècle, fait partie de ceux qui étaient au début du XXe siècle considérés comme d'introduction interdite aux États-Unis (classé maladies contagieuses dangereuses). En vertu de la loi sur l'immigration (Immigration Act), l'admission des étrangers aux États-Unis nécessitait un examen médical conduit par des agents des services de santé publique (du service hospitalier de la marine), visant notamment à empêcher l'introduction d'ankylostomes par des étrangers immigrants arrivant au port de San Francisco. Un examen de routine des selles des étrangers passant par la station de l'immigration d'Angel Island a été tenté, bien qu'impossible à appliquer à tous les immigrants.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition géographique et importance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Parmi les 1 300 millions de personnes infectées par ces deux vers, 150 millions seraient gravement atteintes de cette verminose cosmopolite, occasionnant 65 000 décès annuels, selon l'OMS[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Parmi les 1 300 millions de personnes infectées par ces deux vers, 150 millions seraient gravement atteintes de cette verminose cosmopolite, occasionnant 65 000 décès annuels, selon l'OMS.
 Atteignant, dans certaines zones chaudes et humides, des taux d'infestation de 90 à 95 %[réf. nécessaire], l'ankylostomose est l'une des maladies majeures du monde moderne par ses conséquences sur le plan social : l'anémie, l'amyotrophie et l'aboulie, qu'elle entraîne dans les populations massivement parasitées, participant sous-développement des régions de haute endémicité.
 D'autre part, cette verminose permet de saisir l'étrange disproportion entre l'exiguïté de son agent causal, l'ankylostome, et le large éventail de pouvoirs pathogènes qu'il possède :
 sa bouche armée lèse la muqueuse, entraînant duodénite (inflammation du duodénum) et arrêt d'absorption des vitamines B, d'où polynévrite ;
@@ -580,7 +596,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Très petits vers ronds d'une teinte blanchâtre ou rosée, plus effilés vers l'avant, les ankylostomes mesurent seulement 1 cm pour le mâle et 1,5 cm pour la femelle ; une capsule buccale fortement armée garnit leur tête. Le dimorphisme sexuel est net, la femelle se terminant en pointe mousse alors que l'extrémité postérieure du mâle s'évase en une bourse caudale copulatrice. De plus cette bourse possède deux spicules longs et fins.
 </t>
@@ -611,7 +629,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes vivent dans le duodéno-jéjunum (partie de l'intestin grêle qui fait suite au duodénum) de l'homme ; fixés par leurs crochets buccaux à la muqueuse qu'ils "broutent", ils peuvent vivre des années, 5 et plus, et leur nombre peut être considérable chez un même individu, 500 à 3 000. Ils se nourrissent de sang dont ils assimilent le plasma.
 Après fécondation, la femelle se met à pondre, dans la lumière intestinale, une moyenne de 10 000 œufs par jour ; ces œufs, émis avec les selles, ont, à ce moment, un aspect caractéristique (indifférenciable pour A. duodénale et N. americanus) : ellipsoïdes, à coque mince, ils mesurent 60 microns sur 40 microns et contiennent 4 à 8 blastomères.
@@ -645,16 +665,123 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Paradoxalement, les aspects cliniques de l'ankylostomose ont été, tout d'abord, décrits en Europe, dans les régions minières, sous le nom d'anémie des mineurs. Cette maladie professionnelle (qui, nous l'avons vu ne se limite pas aux seules mines) a pratiquement disparu grâce à des mesures de surveillance draconiennes ; pourtant les bouffées sporadiques apparaissant dans des chantiers, comme lors de la construction du tunnel du Mont Blanc, montrent la nécessité du maintien de ces mesures.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paradoxalement, les aspects cliniques de l'ankylostomose ont été, tout d'abord, décrits en Europe, dans les régions minières, sous le nom d'anémie des mineurs. Cette maladie professionnelle (qui, nous l'avons vu ne se limite pas aux seules mines) a pratiquement disparu grâce à des mesures de surveillance draconiennes ; pourtant les bouffées sporadiques apparaissant dans des chantiers, comme lors de la construction du tunnel du Mont Blanc, montrent la nécessité du maintien de ces mesures.
 Trois tableaux cliniques se succèdent dans l'ankylostomose, les deux premiers traduisant l'action des stades larvaires, le dernier, celle des adultes :
-La période d'infestation
-La période d'infestation, lors de la pénétration trans-cutanée des larves, a un tableau de dermatose : la gale de terre ; aux pieds surtout, dans les espaces interdigitaux, puis aux mains, au pli du coude, ce sont des piqûres suivies de chatouillements, puis apparaissent des maculopapules, des placards érythémateux, durant de quelques heures à quelques jours ; les réinoculations constantes et les lésions de grattage en font une dermatose chronique avec eczématisation, lichénification aboutissant, dans les mines, aux nodules rouges de la gourme des mineurs, sous les tropiques, aux suppurations et au phagédénisme.
-La période d'invasion
-La période d'invasion, pendant le transit des larves à travers l'appareil respiratoire, avec un tableau d'affection broncho-pulmonaire (catarrhe des gourmes), se ramène à un syndrome de Löffler atypique : pseudo-bronchite avec toux quinteuse et voix rauque, sans signes d'auscultation ; absence d'infiltrats pulmonaires labiles à la radiographie, sauf dans quelques infestations très massives ; crises urticariennes ; hyperleucocytose avec éosinophilie élevée à 40 % et plus. Cette période débute vers le 8e jour après le contage.
-La période d'état
-La période d'état, 8 à 15 jours plus tard, est celle du parasitisme intestinal par les vers adultes ; c'est l'ankylostomose proprement dite dont le tableau traduit 4 ordres de troubles : digestifs, anémiques, nerveux et généraux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ancylostoma_duodenale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ancylostoma_duodenale</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Clinique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>La période d'infestation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La période d'infestation, lors de la pénétration trans-cutanée des larves, a un tableau de dermatose : la gale de terre ; aux pieds surtout, dans les espaces interdigitaux, puis aux mains, au pli du coude, ce sont des piqûres suivies de chatouillements, puis apparaissent des maculopapules, des placards érythémateux, durant de quelques heures à quelques jours ; les réinoculations constantes et les lésions de grattage en font une dermatose chronique avec eczématisation, lichénification aboutissant, dans les mines, aux nodules rouges de la gourme des mineurs, sous les tropiques, aux suppurations et au phagédénisme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ancylostoma_duodenale</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ancylostoma_duodenale</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Clinique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>La période d'invasion</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La période d'invasion, pendant le transit des larves à travers l'appareil respiratoire, avec un tableau d'affection broncho-pulmonaire (catarrhe des gourmes), se ramène à un syndrome de Löffler atypique : pseudo-bronchite avec toux quinteuse et voix rauque, sans signes d'auscultation ; absence d'infiltrats pulmonaires labiles à la radiographie, sauf dans quelques infestations très massives ; crises urticariennes ; hyperleucocytose avec éosinophilie élevée à 40 % et plus. Cette période débute vers le 8e jour après le contage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ancylostoma_duodenale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ancylostoma_duodenale</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Clinique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>La période d'état</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La période d'état, 8 à 15 jours plus tard, est celle du parasitisme intestinal par les vers adultes ; c'est l'ankylostomose proprement dite dont le tableau traduit 4 ordres de troubles : digestifs, anémiques, nerveux et généraux.
 Les troubles digestifs consistent en gêne épigastrique, douleurs épigastriques irradiant vers l'épaule gauche ou la fosse iliaque gauche, calmées ou exacerbées par la prise d'aliments ; troubles dyspeptiques constants (mal-cœur des Antillais), avec modification de l'appétit, inappétence et faims nerveuses amenant aux perversions du goût et au géophagisme ; régurgitations, nausées, aérogastrie ; puis, plus tard, troubles intestinaux : météorisme abdominal, alternance de diarrhées et de constipation, puis de selles pâteuses et de diarrhée séreuse, enfin melæna dû à la fois au sang provenant des lésions et aux hématies rejetées par les vers.
 Les troubles anémiques, constants, s'installent insidieusement : sécheresse de la peau qui se décolore chez le Blanc et se ternit chez le Noir ; décoloration des muqueuses ; œdème péri-malléolaire remontant le long du membre inférieur ; accélération du pouls, palpitations, dyspnée d'effort, bourdonnements d'oreille, vertiges et épistaxis. L'auscultation permet d'entendre, dans un cœur dilaté, des souffles anémiques. L'examen du sang montre : une chute du taux des hématies à 1 million ou moins, avec polychromatophilie, anisocytose, microcytose, réticulocytes et anneaux de Cabot ; une hypochromie avec taux d'hémoglobine inférieur à 25 % ; une leucocytose modérée, mais une éosinophilie revenue vers 10 à 20 %. Cette anémie peut aboutir à des cardiopathies diverses.
 Les troubles nerveux sont fréquents : céphalées et insomnie ; troubles paresthésiques, engourdissements, fourmillements, refroidissement des membres ; troubles moteurs, hypotonie musculaire, troubles de la marche avec ébauche d'incoordination motrice, puis abolition des réflexes ; amyotrophie importante qui, masquée par l'œdème, doit être recherchée soigneusement. Parfois on arrive au type polynévritique et à des paraplégies.
@@ -662,101 +789,6 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Ancylostoma_duodenale</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ancylostoma_duodenale</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Évolution</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'évolution dépend de l'intensité du parasitisme et du mode de vie du malade : les sujets avec moins de 25 vers sont des porteurs sains, les malades hébergeant de 25 à 500 vers sont améliorables par le traitement, ceux qui dépassent ce chiffre et arrivent à des taux de 3 000 et plus font une forme dite maligne, à pronostic très sombre, amenant à la cachexie et la mort par affection intercurrente. De même, alors qu'un voyageur, infecté accidentellement à son passage en zone d'endémie, sera spontanément déparasité à 80 % en un an dès son retour en région saine, l'autochtone d'un foyer important, dont la faune parasitaire va augmenter régulièrement de 50 vers par an sous l'influence des réinfestations constantes, s'achemine inéluctablement vers une forme maligne aboutissant à la cachexie et à la mort.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Ancylostoma_duodenale</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ancylostoma_duodenale</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Diagnostic</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le diagnostic des deux premières périodes se fait à la suite de possible contage dans une zone d'endémie. À la période d'état, le diagnostic clinique est surtout celui des anémies. La constatation d'une éosinophilie élevée, atteignant 60 à 70 % au cours du premier mois, doit faire rechercher une parasitose ; le diagnostic de certitude sera donné par la découverte des œufs caractéristiques avec un examen parasitologique des selles (par examen direct ou après enrichissement) et surtout par celles des larves après coproculture qu'il faut demander expressément au laboratoire.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Ancylostoma_duodenale</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ancylostoma_duodenale</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Traitement</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ankylostome peut être traité localement par cryothérapie quand il est toujours dans la peau. Le Mébendazole (100 mg 2 fois par jour pendant 3 jours) est efficace à l'étape intestinale et pendant l'étape où le parasite migre toujours sous la peau. En cas d'anémie, la supplémentation en fer peut atténuer les symptômes de l'anémie ferriprive. Cependant, lorsque le taux de globules rouges revient à la normale, le manque d'autres substances comme l'acide folique ou la vitamine B12 peut apparaître qui peuvent également nécessiter une supplémentation.
-Chez l'enfant, après le déparasitage, une amélioration de l'état de santé est constatée dans les deux mois, et après un an, les formules sanguines sont redevenues normales[3].
-Des tests de vaccination sont en cours[4],[5]
-</t>
-        </is>
-      </c>
-    </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
@@ -778,16 +810,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Prévention, prophylaxie individuelle et hygiène</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La prophylaxie de cette parasitoses repose essentiellement sur l'hygiène personnel,le port des chaussures surtout l'chez les enfants, élimination des eaux stagnante,éviter des contacts avec tout sources de contamination.
-La médication a progressé[6], et certains succès ont été obtenus, par exemple en Corée[7].
-L'OMS propose des moyens de suivi[8] et de prévention[9],[10], notamment chez les enfants[11]. Le port de chaussures montantes, surtout dans les zones boueuses, suffit à prévenir la transmission. Nettoyage et séchage immédiat et vigoureux de la peau en cas de contact avec la boue. Des cartes de risques peuvent être faites et diffusées[12].
-Cependant, après les campagnes de médication, le risque de réinfection est toujours élevé en zone d'endémie, notamment chez les enfants[13].
-On a montré que l'éducation à l'hygiène était nécessaire, de même que la prise en compte su contexte socioéconomique des familles et groupes concernés[14],[15],Ugbomoiko US, Dalumo V, Ofoezie IE, Obiezue RNN (2009) Socio-environmental factors and ascariasis infection among school-aged children in Ilobu, Osun State, Nigeria. Trans R Soc Trop Med Hyg 103: 223–228.. Les campagnes massives même sur 10 ans de vermifugeage sont suivies d'une reprise des infestations sans mesures strictes d'hygiène [16].
+          <t>Évolution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'évolution dépend de l'intensité du parasitisme et du mode de vie du malade : les sujets avec moins de 25 vers sont des porteurs sains, les malades hébergeant de 25 à 500 vers sont améliorables par le traitement, ceux qui dépassent ce chiffre et arrivent à des taux de 3 000 et plus font une forme dite maligne, à pronostic très sombre, amenant à la cachexie et la mort par affection intercurrente. De même, alors qu'un voyageur, infecté accidentellement à son passage en zone d'endémie, sera spontanément déparasité à 80 % en un an dès son retour en région saine, l'autochtone d'un foyer important, dont la faune parasitaire va augmenter régulièrement de 50 vers par an sous l'influence des réinfestations constantes, s'achemine inéluctablement vers une forme maligne aboutissant à la cachexie et à la mort.
 </t>
         </is>
       </c>
@@ -813,12 +843,119 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagnostic des deux premières périodes se fait à la suite de possible contage dans une zone d'endémie. À la période d'état, le diagnostic clinique est surtout celui des anémies. La constatation d'une éosinophilie élevée, atteignant 60 à 70 % au cours du premier mois, doit faire rechercher une parasitose ; le diagnostic de certitude sera donné par la découverte des œufs caractéristiques avec un examen parasitologique des selles (par examen direct ou après enrichissement) et surtout par celles des larves après coproculture qu'il faut demander expressément au laboratoire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ancylostoma_duodenale</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ancylostoma_duodenale</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ankylostome peut être traité localement par cryothérapie quand il est toujours dans la peau. Le Mébendazole (100 mg 2 fois par jour pendant 3 jours) est efficace à l'étape intestinale et pendant l'étape où le parasite migre toujours sous la peau. En cas d'anémie, la supplémentation en fer peut atténuer les symptômes de l'anémie ferriprive. Cependant, lorsque le taux de globules rouges revient à la normale, le manque d'autres substances comme l'acide folique ou la vitamine B12 peut apparaître qui peuvent également nécessiter une supplémentation.
+Chez l'enfant, après le déparasitage, une amélioration de l'état de santé est constatée dans les deux mois, et après un an, les formules sanguines sont redevenues normales.
+Des tests de vaccination sont en cours,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Ancylostoma_duodenale</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ancylostoma_duodenale</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Prévention, prophylaxie individuelle et hygiène</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prophylaxie de cette parasitoses repose essentiellement sur l'hygiène personnel,le port des chaussures surtout l'chez les enfants, élimination des eaux stagnante,éviter des contacts avec tout sources de contamination.
+La médication a progressé, et certains succès ont été obtenus, par exemple en Corée.
+L'OMS propose des moyens de suivi et de prévention notamment chez les enfants. Le port de chaussures montantes, surtout dans les zones boueuses, suffit à prévenir la transmission. Nettoyage et séchage immédiat et vigoureux de la peau en cas de contact avec la boue. Des cartes de risques peuvent être faites et diffusées.
+Cependant, après les campagnes de médication, le risque de réinfection est toujours élevé en zone d'endémie, notamment chez les enfants.
+On a montré que l'éducation à l'hygiène était nécessaire, de même que la prise en compte su contexte socioéconomique des familles et groupes concernésUgbomoiko US, Dalumo V, Ofoezie IE, Obiezue RNN (2009) Socio-environmental factors and ascariasis infection among school-aged children in Ilobu, Osun State, Nigeria. Trans R Soc Trop Med Hyg 103: 223–228.. Les campagnes massives même sur 10 ans de vermifugeage sont suivies d'une reprise des infestations sans mesures strictes d'hygiène .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ancylostoma_duodenale</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ancylostoma_duodenale</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Aspects zoonotiques</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une étude récente (2012)[17] a utilisé en Malaisie des moyens d'analyse classiques et moléculaires permettant de discriminer les différentes espèces d'ankylostome, ce que ne permet pas l'examen microscopique classique des selles. Des outils épidémiologiques ont été associés pour déterminer le rôle possible des animaux domestiques. L'étude a confirmé que l'infection par Ancylostoma ceylanicum est fréquente chez les populations humaines en Malaisie et que les chiens et chats contribuent à la propagation et transmission de l'ankylostome dans les communautés pauvres[17].
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude récente (2012) a utilisé en Malaisie des moyens d'analyse classiques et moléculaires permettant de discriminer les différentes espèces d'ankylostome, ce que ne permet pas l'examen microscopique classique des selles. Des outils épidémiologiques ont été associés pour déterminer le rôle possible des animaux domestiques. L'étude a confirmé que l'infection par Ancylostoma ceylanicum est fréquente chez les populations humaines en Malaisie et que les chiens et chats contribuent à la propagation et transmission de l'ankylostome dans les communautés pauvres.
 </t>
         </is>
       </c>
